--- a/数据字典.xlsx
+++ b/数据字典.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9564"/>
+    <workbookView windowWidth="17760" windowHeight="6695"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="74">
   <si>
     <t>数据字典</t>
   </si>
@@ -148,13 +148,10 @@
     <t>景点信息表(attractions)</t>
   </si>
   <si>
+    <t>attname</t>
+  </si>
+  <si>
     <t>主码</t>
-  </si>
-  <si>
-    <t>景点编号</t>
-  </si>
-  <si>
-    <t>attname</t>
   </si>
   <si>
     <t>景点名称</t>
@@ -288,6 +285,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -296,6 +307,96 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -304,69 +405,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -378,44 +421,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -423,14 +428,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -459,55 +456,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -519,127 +630,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -759,6 +756,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -776,20 +784,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -808,21 +820,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -831,10 +828,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -843,133 +840,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1328,8 +1325,8 @@
   <sheetPr/>
   <dimension ref="A1:E94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="I50" sqref="I50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -1725,36 +1722,28 @@
       <c r="E31" s="3"/>
     </row>
     <row r="32" spans="2:5">
-      <c r="B32" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="E32" s="8" t="s">
-        <v>45</v>
-      </c>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
     </row>
     <row r="33" ht="15.15" spans="2:5">
       <c r="B33" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C33" s="8" t="s">
         <v>33</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="2:5">
       <c r="B34" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>33</v>
@@ -1763,12 +1752,12 @@
         <v>12</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="2:5">
       <c r="B35" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>33</v>
@@ -1777,12 +1766,12 @@
         <v>12</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="2:5">
       <c r="B36" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C36" s="7" t="s">
         <v>33</v>
@@ -1791,12 +1780,12 @@
         <v>12</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="37" spans="2:5">
       <c r="B37" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C37" s="7" t="s">
         <v>33</v>
@@ -1805,119 +1794,119 @@
         <v>12</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="38" spans="2:5">
       <c r="B38" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C38" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="D38" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E38" s="8" t="s">
         <v>57</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E38" s="8" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="39" spans="2:5">
       <c r="B39" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E39" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="40" spans="2:5">
       <c r="B40" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E40" s="9" t="s">
         <v>61</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D40" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E40" s="9" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="41" spans="2:5">
       <c r="B41" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C41" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="C41" s="9" t="s">
+      <c r="D41" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E41" s="9" t="s">
         <v>64</v>
-      </c>
-      <c r="D41" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E41" s="9" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="42" spans="2:5">
       <c r="B42" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C42" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="D42" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E42" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E42" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="43" spans="2:5">
       <c r="B43" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E43" s="9" t="s">
         <v>69</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D43" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E43" s="9" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="44" spans="2:5">
       <c r="B44" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E44" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D44" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E44" s="7" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="45" spans="2:5">
       <c r="B45" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E45" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D45" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="46" ht="15.15" spans="2:5">

--- a/数据字典.xlsx
+++ b/数据字典.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17760" windowHeight="6695"/>
+    <workbookView windowWidth="23040" windowHeight="9564"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="75">
   <si>
     <t>数据字典</t>
   </si>
@@ -148,10 +148,13 @@
     <t>景点信息表(attractions)</t>
   </si>
   <si>
+    <t>主码</t>
+  </si>
+  <si>
+    <t>景点编号</t>
+  </si>
+  <si>
     <t>attname</t>
-  </si>
-  <si>
-    <t>主码</t>
   </si>
   <si>
     <t>景点名称</t>
@@ -243,8 +246,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -285,20 +288,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -307,8 +296,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -322,6 +342,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -339,7 +396,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -352,82 +431,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -456,187 +459,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -756,13 +759,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -791,32 +813,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -828,10 +831,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -840,133 +843,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1325,8 +1328,8 @@
   <sheetPr/>
   <dimension ref="A1:E94"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31:E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -1722,28 +1725,36 @@
       <c r="E31" s="3"/>
     </row>
     <row r="32" spans="2:5">
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-    </row>
-    <row r="33" ht="15.15" spans="2:5">
+      <c r="B32" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5">
       <c r="B33" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C33" s="8" t="s">
         <v>33</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="2:5">
       <c r="B34" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>33</v>
@@ -1752,12 +1763,12 @@
         <v>12</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35" spans="2:5">
       <c r="B35" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>33</v>
@@ -1766,12 +1777,12 @@
         <v>12</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="36" spans="2:5">
       <c r="B36" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C36" s="7" t="s">
         <v>33</v>
@@ -1780,12 +1791,12 @@
         <v>12</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="37" spans="2:5">
       <c r="B37" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C37" s="7" t="s">
         <v>33</v>
@@ -1794,119 +1805,119 @@
         <v>12</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="38" spans="2:5">
       <c r="B38" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D38" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="39" spans="2:5">
       <c r="B39" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D39" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="2:5">
       <c r="B40" s="8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D40" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="41" spans="2:5">
       <c r="B41" s="9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D41" s="9" t="s">
         <v>12</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="42" spans="2:5">
       <c r="B42" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D42" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="43" spans="2:5">
       <c r="B43" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D43" s="9" t="s">
         <v>12</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="44" spans="2:5">
       <c r="B44" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D44" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="45" spans="2:5">
       <c r="B45" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D45" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="46" ht="15.15" spans="2:5">

--- a/数据字典.xlsx
+++ b/数据字典.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9564"/>
+    <workbookView windowWidth="23256" windowHeight="9864"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="76">
   <si>
     <t>数据字典</t>
   </si>
@@ -37,28 +37,31 @@
     <t>id</t>
   </si>
   <si>
+    <t>bigint(18)</t>
+  </si>
+  <si>
+    <t>主键</t>
+  </si>
+  <si>
+    <t>用户编号</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+  </si>
+  <si>
+    <t>不为空</t>
+  </si>
+  <si>
+    <t>真实姓名</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
     <t>varchar(18)</t>
-  </si>
-  <si>
-    <t>主键</t>
-  </si>
-  <si>
-    <t>用户编号</t>
-  </si>
-  <si>
-    <t>username</t>
-  </si>
-  <si>
-    <t>varchar(20)</t>
-  </si>
-  <si>
-    <t>不为空</t>
-  </si>
-  <si>
-    <t>真实姓名</t>
-  </si>
-  <si>
-    <t>password</t>
   </si>
   <si>
     <t>用户密码</t>
@@ -246,8 +249,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -288,6 +291,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -304,6 +321,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -312,6 +337,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -328,7 +376,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -336,21 +399,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -358,22 +421,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -386,51 +434,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -459,13 +462,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -477,37 +630,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -519,127 +642,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -750,15 +753,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -806,6 +800,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -815,11 +820,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -831,10 +834,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -843,16 +846,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -861,115 +864,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1329,7 +1332,7 @@
   <dimension ref="A1:E94"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31:E31"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -1411,46 +1414,46 @@
         <v>14</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="2:5">
       <c r="B8" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="2:5">
       <c r="B9" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="2:5">
       <c r="B10" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -1481,7 +1484,7 @@
         <v>8</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="2:5">
@@ -1495,7 +1498,7 @@
         <v>12</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="2:5">
@@ -1503,41 +1506,41 @@
         <v>14</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="2:5">
       <c r="B15" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="2:5">
       <c r="B16" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="2:5">
@@ -1548,7 +1551,7 @@
     </row>
     <row r="18" spans="2:5">
       <c r="B18" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -1579,7 +1582,7 @@
         <v>8</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="2:5">
@@ -1593,7 +1596,7 @@
         <v>12</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="2:5">
@@ -1601,52 +1604,52 @@
         <v>14</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="2:5">
       <c r="B23" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="2:5">
       <c r="B24" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D24" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="15.15" spans="2:5">
       <c r="B25" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
     </row>
-    <row r="26" ht="15.15" spans="2:5">
+    <row r="26" spans="2:5">
       <c r="B26" s="8" t="s">
         <v>6</v>
       </c>
@@ -1654,71 +1657,71 @@
         <v>7</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="2:5">
       <c r="B27" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="2:5">
       <c r="B28" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D28" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29" spans="2:5">
       <c r="B29" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D29" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="2:5">
       <c r="B30" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D30" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="2:5">
       <c r="B31" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
@@ -1732,192 +1735,192 @@
         <v>7</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" ht="15.15" spans="2:5">
       <c r="B33" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D33" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="2:5">
       <c r="B34" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D34" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="2:5">
       <c r="B35" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D35" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="36" spans="2:5">
       <c r="B36" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D36" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="37" spans="2:5">
       <c r="B37" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D37" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="38" spans="2:5">
       <c r="B38" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D38" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="39" spans="2:5">
       <c r="B39" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D39" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="40" spans="2:5">
       <c r="B40" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D40" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="41" spans="2:5">
       <c r="B41" s="9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D41" s="9" t="s">
         <v>12</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="42" spans="2:5">
       <c r="B42" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D42" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="43" spans="2:5">
       <c r="B43" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D43" s="9" t="s">
         <v>12</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="44" spans="2:5">
       <c r="B44" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D44" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="45" spans="2:5">
       <c r="B45" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D45" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="46" ht="15.15" spans="2:5">

--- a/数据字典.xlsx
+++ b/数据字典.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23256" windowHeight="9864"/>
+    <workbookView windowWidth="21000" windowHeight="8700"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="83">
   <si>
     <t>数据字典</t>
   </si>
@@ -97,18 +97,36 @@
     <t>摄影师信息表(photographer)</t>
   </si>
   <si>
+    <t>ph_id</t>
+  </si>
+  <si>
     <t>摄影师编号</t>
   </si>
   <si>
+    <t>ph_username</t>
+  </si>
+  <si>
     <t>摄影师姓名</t>
   </si>
   <si>
+    <t>ph_password</t>
+  </si>
+  <si>
     <t>摄影师密码</t>
   </si>
   <si>
+    <t>ph_gender</t>
+  </si>
+  <si>
+    <t>ph_phonenumebr</t>
+  </si>
+  <si>
     <t>作品表(pieces)</t>
   </si>
   <si>
+    <t>piece_id</t>
+  </si>
+  <si>
     <t>外码</t>
   </si>
   <si>
@@ -149,6 +167,9 @@
   </si>
   <si>
     <t>景点信息表(attractions)</t>
+  </si>
+  <si>
+    <t>att_id</t>
   </si>
   <si>
     <t>主码</t>
@@ -291,15 +312,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -313,6 +328,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -338,7 +375,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -346,15 +383,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -376,14 +405,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -397,31 +434,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -434,6 +448,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -462,13 +483,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -480,13 +627,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -499,150 +664,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -729,6 +750,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -753,21 +789,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -779,6 +800,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -800,11 +832,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -817,15 +847,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -834,10 +855,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -846,133 +867,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1331,8 +1352,8 @@
   <sheetPr/>
   <dimension ref="A1:E94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -1573,7 +1594,7 @@
     </row>
     <row r="20" spans="2:5">
       <c r="B20" s="6" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>7</v>
@@ -1582,12 +1603,12 @@
         <v>8</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="2:5">
       <c r="B21" s="7" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>11</v>
@@ -1596,12 +1617,12 @@
         <v>12</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="2:5">
       <c r="B22" s="8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>15</v>
@@ -1610,12 +1631,12 @@
         <v>12</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="2:5">
       <c r="B23" s="7" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>18</v>
@@ -1629,7 +1650,7 @@
     </row>
     <row r="24" spans="2:5">
       <c r="B24" s="8" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>15</v>
@@ -1643,7 +1664,7 @@
     </row>
     <row r="25" ht="15.15" spans="2:5">
       <c r="B25" s="3" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -1651,77 +1672,77 @@
     </row>
     <row r="26" spans="2:5">
       <c r="B26" s="8" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="2:5">
       <c r="B27" s="7" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="2:5">
       <c r="B28" s="8" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D28" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="2:5">
       <c r="B29" s="7" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D29" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30" spans="2:5">
       <c r="B30" s="7" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D30" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31" spans="2:5">
       <c r="B31" s="3" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
@@ -1729,198 +1750,198 @@
     </row>
     <row r="32" spans="2:5">
       <c r="B32" s="8" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="C32" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
     </row>
     <row r="33" ht="15.15" spans="2:5">
       <c r="B33" s="7" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D33" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="2:5">
       <c r="B34" s="7" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D34" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="35" spans="2:5">
       <c r="B35" s="7" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D35" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="36" spans="2:5">
       <c r="B36" s="7" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D36" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
     </row>
     <row r="37" spans="2:5">
       <c r="B37" s="7" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D37" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
     </row>
     <row r="38" spans="2:5">
       <c r="B38" s="8" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="D38" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
     </row>
     <row r="39" spans="2:5">
       <c r="B39" s="8" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="D39" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
     </row>
     <row r="40" spans="2:5">
       <c r="B40" s="8" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="D40" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
     </row>
     <row r="41" spans="2:5">
       <c r="B41" s="9" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="D41" s="9" t="s">
         <v>12</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
     </row>
     <row r="42" spans="2:5">
       <c r="B42" s="7" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="D42" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
     </row>
     <row r="43" spans="2:5">
       <c r="B43" s="9" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="D43" s="9" t="s">
         <v>12</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
     </row>
     <row r="44" spans="2:5">
       <c r="B44" s="7" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="D44" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
     </row>
     <row r="45" spans="2:5">
       <c r="B45" s="7" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="D45" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="46" ht="15.15" spans="2:5">

--- a/数据字典.xlsx
+++ b/数据字典.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="87">
   <si>
     <t>数据字典</t>
   </si>
@@ -94,6 +94,9 @@
     <t>管理员密码</t>
   </si>
   <si>
+    <t>phonenumber</t>
+  </si>
+  <si>
     <t>摄影师信息表(photographer)</t>
   </si>
   <si>
@@ -124,9 +127,6 @@
     <t>作品表(pieces)</t>
   </si>
   <si>
-    <t>piece_id</t>
-  </si>
-  <si>
     <t>外码</t>
   </si>
   <si>
@@ -169,9 +169,6 @@
     <t>景点信息表(attractions)</t>
   </si>
   <si>
-    <t>att_id</t>
-  </si>
-  <si>
     <t>主码</t>
   </si>
   <si>
@@ -263,6 +260,21 @@
   </si>
   <si>
     <t>景区等级</t>
+  </si>
+  <si>
+    <t>预约表</t>
+  </si>
+  <si>
+    <t>用户id</t>
+  </si>
+  <si>
+    <t>摄影师id</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>预约状态</t>
   </si>
 </sst>
 </file>
@@ -312,24 +324,47 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -344,15 +379,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -360,22 +394,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -383,7 +402,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -405,47 +424,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -455,6 +436,37 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -483,187 +495,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -750,71 +762,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -841,12 +788,77 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -855,10 +867,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -867,133 +879,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1352,8 +1364,8 @@
   <sheetPr/>
   <dimension ref="A1:E94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -1552,7 +1564,7 @@
     </row>
     <row r="16" spans="2:5">
       <c r="B16" s="8" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>15</v>
@@ -1572,7 +1584,7 @@
     </row>
     <row r="18" spans="2:5">
       <c r="B18" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -1594,7 +1606,7 @@
     </row>
     <row r="20" spans="2:5">
       <c r="B20" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>7</v>
@@ -1603,12 +1615,12 @@
         <v>8</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="2:5">
       <c r="B21" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>11</v>
@@ -1617,12 +1629,12 @@
         <v>12</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="2:5">
       <c r="B22" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>15</v>
@@ -1631,12 +1643,12 @@
         <v>12</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="2:5">
       <c r="B23" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>18</v>
@@ -1650,7 +1662,7 @@
     </row>
     <row r="24" spans="2:5">
       <c r="B24" s="8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>15</v>
@@ -1664,7 +1676,7 @@
     </row>
     <row r="25" ht="15.15" spans="2:5">
       <c r="B25" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -1672,7 +1684,7 @@
     </row>
     <row r="26" spans="2:5">
       <c r="B26" s="8" t="s">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>7</v>
@@ -1750,21 +1762,21 @@
     </row>
     <row r="32" spans="2:5">
       <c r="B32" s="8" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="C32" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D32" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E32" s="8" t="s">
         <v>52</v>
-      </c>
-      <c r="E32" s="8" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="33" ht="15.15" spans="2:5">
       <c r="B33" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C33" s="8" t="s">
         <v>40</v>
@@ -1773,12 +1785,12 @@
         <v>12</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="2:5">
       <c r="B34" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>40</v>
@@ -1787,12 +1799,12 @@
         <v>12</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="35" spans="2:5">
       <c r="B35" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>40</v>
@@ -1801,12 +1813,12 @@
         <v>12</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="36" spans="2:5">
       <c r="B36" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C36" s="7" t="s">
         <v>40</v>
@@ -1815,12 +1827,12 @@
         <v>12</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37" spans="2:5">
       <c r="B37" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C37" s="7" t="s">
         <v>40</v>
@@ -1829,192 +1841,266 @@
         <v>12</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="38" spans="2:5">
       <c r="B38" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C38" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="D38" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E38" s="8" t="s">
         <v>65</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E38" s="8" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="39" spans="2:5">
       <c r="B39" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E39" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="40" spans="2:5">
       <c r="B40" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E40" s="9" t="s">
         <v>69</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D40" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E40" s="9" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="41" spans="2:5">
       <c r="B41" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C41" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="C41" s="9" t="s">
+      <c r="D41" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E41" s="9" t="s">
         <v>72</v>
-      </c>
-      <c r="D41" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E41" s="9" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="42" spans="2:5">
       <c r="B42" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C42" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="D42" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E42" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E42" s="7" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="43" spans="2:5">
       <c r="B43" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E43" s="9" t="s">
         <v>77</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="D43" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E43" s="9" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="44" spans="2:5">
       <c r="B44" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E44" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="D44" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E44" s="7" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="45" spans="2:5">
       <c r="B45" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E45" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C45" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="D45" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E45" s="7" t="s">
+    </row>
+    <row r="46" spans="2:5">
+      <c r="B46" s="3" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="46" ht="15.15" spans="2:5">
-      <c r="B46" s="3"/>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
     </row>
-    <row r="47" ht="15.15" spans="2:5">
-      <c r="B47" s="8"/>
-      <c r="C47" s="7"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="8"/>
+    <row r="47" spans="2:5">
+      <c r="B47" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="48" spans="2:5">
-      <c r="B48" s="7"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="7"/>
+      <c r="B48" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="49" spans="2:5">
-      <c r="B49" s="8"/>
-      <c r="C49" s="7"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="8"/>
-    </row>
-    <row r="50" spans="2:5">
-      <c r="B50" s="7"/>
-      <c r="C50" s="7"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="7"/>
+      <c r="B49" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="50" ht="15.15" spans="2:5">
+      <c r="B50" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="51" spans="2:5">
-      <c r="B51" s="8"/>
-      <c r="C51" s="8"/>
-      <c r="D51" s="8"/>
-      <c r="E51" s="8"/>
-    </row>
-    <row r="52" ht="15.15" spans="2:5">
-      <c r="B52" s="3"/>
-      <c r="C52" s="3"/>
-      <c r="D52" s="3"/>
-      <c r="E52" s="3"/>
-    </row>
-    <row r="53" ht="15.15" spans="2:5">
-      <c r="B53" s="8"/>
-      <c r="C53" s="7"/>
-      <c r="D53" s="6"/>
-      <c r="E53" s="8"/>
+      <c r="B51" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5">
+      <c r="B52" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5">
+      <c r="B53" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="54" spans="2:5">
-      <c r="B54" s="7"/>
-      <c r="C54" s="7"/>
-      <c r="D54" s="6"/>
-      <c r="E54" s="7"/>
+      <c r="B54" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E54" s="8" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="55" spans="2:5">
-      <c r="B55" s="8"/>
-      <c r="C55" s="7"/>
-      <c r="D55" s="8"/>
-      <c r="E55" s="8"/>
+      <c r="B55" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E55" s="8" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="56" spans="2:5">
-      <c r="B56" s="7"/>
+      <c r="B56" s="8"/>
       <c r="C56" s="7"/>
-      <c r="D56" s="7"/>
-      <c r="E56" s="7"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
     </row>
     <row r="57" ht="15.15" spans="2:5">
-      <c r="B57" s="3"/>
-      <c r="C57" s="3"/>
-      <c r="D57" s="3"/>
-      <c r="E57" s="3"/>
+      <c r="B57" s="8"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
     </row>
     <row r="58" spans="2:5">
       <c r="B58" s="7"/>
@@ -2065,10 +2151,10 @@
       <c r="E65" s="8"/>
     </row>
     <row r="66" spans="2:5">
-      <c r="B66" s="3"/>
-      <c r="C66" s="3"/>
-      <c r="D66" s="3"/>
-      <c r="E66" s="3"/>
+      <c r="B66" s="8"/>
+      <c r="C66" s="7"/>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
     </row>
     <row r="67" spans="2:5">
       <c r="B67" s="8"/>
@@ -2227,16 +2313,13 @@
       <c r="E94" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="9">
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B18:E18"/>
     <mergeCell ref="B25:E25"/>
     <mergeCell ref="B31:E31"/>
     <mergeCell ref="B46:E46"/>
-    <mergeCell ref="B52:E52"/>
-    <mergeCell ref="B57:E57"/>
-    <mergeCell ref="B66:E66"/>
     <mergeCell ref="B75:E75"/>
     <mergeCell ref="B85:E85"/>
     <mergeCell ref="B1:E2"/>

--- a/数据字典.xlsx
+++ b/数据字典.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="88">
   <si>
     <t>数据字典</t>
   </si>
@@ -269,6 +269,9 @@
   </si>
   <si>
     <t>摄影师id</t>
+  </si>
+  <si>
+    <t>ph_phonenumber</t>
   </si>
   <si>
     <t>status</t>
@@ -325,12 +328,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -339,8 +343,15 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -348,23 +359,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -379,14 +374,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -394,17 +405,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -430,28 +433,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -460,8 +441,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -495,55 +498,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -555,127 +678,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -762,6 +765,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -777,37 +800,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -830,8 +833,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -839,23 +857,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -867,10 +870,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -879,133 +882,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1364,8 +1367,8 @@
   <sheetPr/>
   <dimension ref="A1:E94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -1682,7 +1685,7 @@
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
     </row>
-    <row r="26" spans="2:5">
+    <row r="26" ht="15.15" spans="2:5">
       <c r="B26" s="8" t="s">
         <v>6</v>
       </c>
@@ -1956,7 +1959,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="46" spans="2:5">
+    <row r="46" ht="15.15" spans="2:5">
       <c r="B46" s="3" t="s">
         <v>82</v>
       </c>
@@ -2050,7 +2053,7 @@
     </row>
     <row r="53" spans="2:5">
       <c r="B53" s="7" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="C53" s="7" t="s">
         <v>18</v>
@@ -2064,7 +2067,7 @@
     </row>
     <row r="54" spans="2:5">
       <c r="B54" s="8" t="s">
-        <v>26</v>
+        <v>85</v>
       </c>
       <c r="C54" s="8" t="s">
         <v>15</v>
@@ -2078,7 +2081,7 @@
     </row>
     <row r="55" spans="2:5">
       <c r="B55" s="8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C55" s="7" t="s">
         <v>71</v>
@@ -2087,7 +2090,7 @@
         <v>12</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="56" spans="2:5">

--- a/数据字典.xlsx
+++ b/数据字典.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="8700"/>
+    <workbookView windowWidth="23040" windowHeight="9564"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="91">
   <si>
     <t>数据字典</t>
   </si>
@@ -260,6 +260,15 @@
   </si>
   <si>
     <t>景区等级</t>
+  </si>
+  <si>
+    <t>attvideo</t>
+  </si>
+  <si>
+    <t>景区视频</t>
+  </si>
+  <si>
+    <t>attvioog</t>
   </si>
   <si>
     <t>预约表</t>
@@ -285,8 +294,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -328,13 +337,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -342,47 +350,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -411,28 +380,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -441,8 +388,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -470,6 +418,67 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -498,6 +507,72 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -510,175 +585,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -779,60 +788,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -862,6 +817,60 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -870,10 +879,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -882,133 +891,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1367,8 +1376,8 @@
   <sheetPr/>
   <dimension ref="A1:E94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E54" sqref="E54"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -1959,151 +1968,167 @@
         <v>81</v>
       </c>
     </row>
-    <row r="46" ht="15.15" spans="2:5">
-      <c r="B46" s="3" t="s">
+    <row r="46" spans="2:5">
+      <c r="B46" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
+      <c r="C46" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="47" spans="2:5">
-      <c r="B47" s="8" t="s">
+      <c r="B47" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="48" ht="15.15" spans="2:5">
+      <c r="B48" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+    </row>
+    <row r="49" spans="2:5">
+      <c r="B49" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="C49" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D47" s="6" t="s">
+      <c r="D49" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E47" s="8" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="48" spans="2:5">
-      <c r="B48" s="7" t="s">
+      <c r="E49" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5">
+      <c r="B50" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C48" s="7" t="s">
+      <c r="C50" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D48" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E48" s="7" t="s">
+      <c r="D50" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E50" s="7" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="49" spans="2:5">
-      <c r="B49" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C49" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D49" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E49" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="50" ht="15.15" spans="2:5">
-      <c r="B50" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D50" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E50" s="8" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="51" spans="2:5">
       <c r="B51" s="7" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>51</v>
+        <v>18</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="52" spans="2:5">
-      <c r="B52" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C52" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D52" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E52" s="7" t="s">
-        <v>31</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="52" ht="15.15" spans="2:5">
+      <c r="B52" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="53" spans="2:5">
       <c r="B53" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5">
+      <c r="B54" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5">
+      <c r="B55" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C53" s="7" t="s">
+      <c r="C55" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D53" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E53" s="7" t="s">
+      <c r="D55" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E55" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="54" spans="2:5">
-      <c r="B54" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="C54" s="8" t="s">
+    <row r="56" spans="2:5">
+      <c r="B56" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C56" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D54" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E54" s="8" t="s">
+      <c r="D56" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E56" s="8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="55" spans="2:5">
-      <c r="B55" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="C55" s="7" t="s">
+    <row r="57" ht="15.15" spans="2:5">
+      <c r="B57" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C57" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="D55" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E55" s="8" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="56" spans="2:5">
-      <c r="B56" s="8"/>
-      <c r="C56" s="7"/>
-      <c r="D56" s="8"/>
-      <c r="E56" s="8"/>
-    </row>
-    <row r="57" ht="15.15" spans="2:5">
-      <c r="B57" s="8"/>
-      <c r="C57" s="7"/>
-      <c r="D57" s="8"/>
-      <c r="E57" s="8"/>
+      <c r="D57" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E57" s="8" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="58" spans="2:5">
       <c r="B58" s="7"/>
@@ -2322,7 +2347,7 @@
     <mergeCell ref="B18:E18"/>
     <mergeCell ref="B25:E25"/>
     <mergeCell ref="B31:E31"/>
-    <mergeCell ref="B46:E46"/>
+    <mergeCell ref="B48:E48"/>
     <mergeCell ref="B75:E75"/>
     <mergeCell ref="B85:E85"/>
     <mergeCell ref="B1:E2"/>

--- a/数据字典.xlsx
+++ b/数据字典.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9564"/>
+    <workbookView windowWidth="21216" windowHeight="9264"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="92">
   <si>
     <t>数据字典</t>
   </si>
@@ -271,7 +271,7 @@
     <t>attvioog</t>
   </si>
   <si>
-    <t>预约表</t>
+    <t>预约表(order)</t>
   </si>
   <si>
     <t>用户id</t>
@@ -287,6 +287,9 @@
   </si>
   <si>
     <t>预约状态</t>
+  </si>
+  <si>
+    <t>预约编号</t>
   </si>
 </sst>
 </file>
@@ -294,8 +297,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -351,6 +354,45 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -374,29 +416,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -405,37 +424,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -458,6 +447,28 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -466,19 +477,11 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -507,13 +510,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -525,91 +648,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -621,54 +678,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -676,18 +691,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -776,11 +779,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -788,8 +789,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -833,15 +849,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -857,17 +864,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -879,145 +882,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1376,8 +1379,8 @@
   <sheetPr/>
   <dimension ref="A1:E94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48:E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -1996,7 +1999,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="48" ht="15.15" spans="2:5">
+    <row r="48" spans="2:5">
       <c r="B48" s="3" t="s">
         <v>85</v>
       </c>
@@ -2012,7 +2015,7 @@
         <v>7</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="E49" s="8" t="s">
         <v>86</v>
@@ -2068,7 +2071,7 @@
         <v>7</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="E53" s="7" t="s">
         <v>87</v>
@@ -2131,10 +2134,18 @@
       </c>
     </row>
     <row r="58" spans="2:5">
-      <c r="B58" s="7"/>
-      <c r="C58" s="7"/>
-      <c r="D58" s="6"/>
-      <c r="E58" s="7"/>
+      <c r="B58" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="59" ht="15.15" spans="2:5">
       <c r="B59" s="8"/>

--- a/数据字典.xlsx
+++ b/数据字典.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21216" windowHeight="9264"/>
+    <workbookView windowWidth="21216" windowHeight="9300"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="93">
   <si>
     <t>数据字典</t>
   </si>
@@ -287,6 +287,9 @@
   </si>
   <si>
     <t>预约状态</t>
+  </si>
+  <si>
+    <t>order_id</t>
   </si>
   <si>
     <t>预约编号</t>
@@ -339,8 +342,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -354,23 +365,28 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -392,15 +408,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -411,6 +421,22 @@
       <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -430,46 +456,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -510,6 +513,168 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -522,175 +687,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -780,8 +783,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -790,7 +808,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -806,6 +824,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -827,45 +869,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -882,10 +885,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -894,133 +897,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1379,8 +1382,8 @@
   <sheetPr/>
   <dimension ref="A1:E94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48:E48"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -1999,7 +2002,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="48" spans="2:5">
+    <row r="48" ht="15.15" spans="2:5">
       <c r="B48" s="3" t="s">
         <v>85</v>
       </c>
@@ -2049,9 +2052,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="52" ht="15.15" spans="2:5">
+    <row r="52" spans="2:5">
       <c r="B52" s="8" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C52" s="8" t="s">
         <v>15</v>
@@ -2135,7 +2138,7 @@
     </row>
     <row r="58" spans="2:5">
       <c r="B58" s="7" t="s">
-        <v>6</v>
+        <v>91</v>
       </c>
       <c r="C58" s="7" t="s">
         <v>7</v>
@@ -2144,7 +2147,7 @@
         <v>51</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="59" ht="15.15" spans="2:5">

--- a/数据字典.xlsx
+++ b/数据字典.xlsx
@@ -300,9 +300,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -343,36 +343,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -385,10 +357,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -416,6 +389,79 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -433,52 +479,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -513,187 +513,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -780,26 +780,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -808,7 +799,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -828,17 +819,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -885,10 +885,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -897,133 +897,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1382,8 +1382,8 @@
   <sheetPr/>
   <dimension ref="A1:E94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D55" sqref="D55"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -1630,7 +1630,7 @@
         <v>7</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>29</v>
@@ -2052,7 +2052,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="52" spans="2:5">
+    <row r="52" ht="15.15" spans="2:5">
       <c r="B52" s="8" t="s">
         <v>26</v>
       </c>

--- a/数据字典.xlsx
+++ b/数据字典.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9564"/>
+    <workbookView windowWidth="23040" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="78">
   <si>
     <t>数据字典</t>
   </si>
@@ -103,6 +103,9 @@
     <t>摄影师密码</t>
   </si>
   <si>
+    <t>phonenumeber</t>
+  </si>
+  <si>
     <t>作品表(pieces)</t>
   </si>
   <si>
@@ -239,6 +242,12 @@
   </si>
   <si>
     <t>景区等级</t>
+  </si>
+  <si>
+    <t>attvideo</t>
+  </si>
+  <si>
+    <t>景区视频</t>
   </si>
 </sst>
 </file>
@@ -246,10 +255,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -288,6 +297,142 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -295,142 +440,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -459,91 +468,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -555,91 +648,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -726,6 +735,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -735,26 +774,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -774,36 +809,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -813,13 +818,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -831,10 +840,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -843,133 +852,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1328,8 +1337,8 @@
   <sheetPr/>
   <dimension ref="A1:E94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31:E31"/>
+    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -1626,7 +1635,7 @@
     </row>
     <row r="24" spans="2:5">
       <c r="B24" s="8" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>7</v>
@@ -1638,15 +1647,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" ht="15.15" spans="2:5">
+    <row r="25" spans="2:5">
       <c r="B25" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
     </row>
-    <row r="26" ht="15.15" spans="2:5">
+    <row r="26" spans="2:5">
       <c r="B26" s="8" t="s">
         <v>6</v>
       </c>
@@ -1654,71 +1663,71 @@
         <v>7</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="2:5">
       <c r="B27" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="2:5">
       <c r="B28" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D28" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29" spans="2:5">
       <c r="B29" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D29" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="2:5">
       <c r="B30" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D30" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="2:5">
       <c r="B31" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
@@ -1732,192 +1741,192 @@
         <v>7</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" ht="15.15" spans="2:5">
       <c r="B33" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D33" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="2:5">
       <c r="B34" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D34" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="2:5">
       <c r="B35" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D35" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="36" spans="2:5">
       <c r="B36" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D36" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="37" spans="2:5">
       <c r="B37" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D37" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="38" spans="2:5">
       <c r="B38" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D38" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="39" spans="2:5">
       <c r="B39" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D39" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="40" spans="2:5">
       <c r="B40" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D40" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="41" spans="2:5">
       <c r="B41" s="9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D41" s="9" t="s">
         <v>12</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="42" spans="2:5">
       <c r="B42" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D42" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="43" spans="2:5">
       <c r="B43" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D43" s="9" t="s">
         <v>12</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="44" spans="2:5">
       <c r="B44" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D44" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="45" spans="2:5">
       <c r="B45" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D45" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="46" ht="15.15" spans="2:5">
@@ -1927,10 +1936,18 @@
       <c r="E46" s="3"/>
     </row>
     <row r="47" ht="15.15" spans="2:5">
-      <c r="B47" s="8"/>
-      <c r="C47" s="7"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="8"/>
+      <c r="B47" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="48" spans="2:5">
       <c r="B48" s="7"/>

--- a/数据字典.xlsx
+++ b/数据字典.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420"/>
+    <workbookView windowWidth="21216" windowHeight="9300"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="95">
   <si>
     <t>数据字典</t>
   </si>
@@ -37,30 +37,33 @@
     <t>id</t>
   </si>
   <si>
+    <t>bigint(18)</t>
+  </si>
+  <si>
+    <t>主键</t>
+  </si>
+  <si>
+    <t>用户编号</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+  </si>
+  <si>
+    <t>不为空</t>
+  </si>
+  <si>
+    <t>真实姓名</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
     <t>varchar(18)</t>
   </si>
   <si>
-    <t>主键</t>
-  </si>
-  <si>
-    <t>用户编号</t>
-  </si>
-  <si>
-    <t>username</t>
-  </si>
-  <si>
-    <t>varchar(20)</t>
-  </si>
-  <si>
-    <t>不为空</t>
-  </si>
-  <si>
-    <t>真实姓名</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
     <t>用户密码</t>
   </si>
   <si>
@@ -103,9 +106,6 @@
     <t>摄影师密码</t>
   </si>
   <si>
-    <t>phonenumeber</t>
-  </si>
-  <si>
     <t>作品表(pieces)</t>
   </si>
   <si>
@@ -247,7 +247,58 @@
     <t>attvideo</t>
   </si>
   <si>
-    <t>景区视频</t>
+    <t>MP4</t>
+  </si>
+  <si>
+    <t>attvioog</t>
+  </si>
+  <si>
+    <t>OOG</t>
+  </si>
+  <si>
+    <t>预约表(myorder)</t>
+  </si>
+  <si>
+    <t>order_id</t>
+  </si>
+  <si>
+    <t>预约编号</t>
+  </si>
+  <si>
+    <t>用户名</t>
+  </si>
+  <si>
+    <t>用户性别</t>
+  </si>
+  <si>
+    <t>phonenumber</t>
+  </si>
+  <si>
+    <t>用户电话号码</t>
+  </si>
+  <si>
+    <t>ph_id</t>
+  </si>
+  <si>
+    <t>ph_username</t>
+  </si>
+  <si>
+    <t>ph_gender</t>
+  </si>
+  <si>
+    <t>摄影师性别</t>
+  </si>
+  <si>
+    <t>ph_phonenumber</t>
+  </si>
+  <si>
+    <t>摄影师电话号码</t>
+  </si>
+  <si>
+    <t>or_status</t>
+  </si>
+  <si>
+    <t>订单状态</t>
   </si>
 </sst>
 </file>
@@ -255,10 +306,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -297,22 +348,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -320,14 +366,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -348,16 +403,29 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -365,9 +433,16 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -387,9 +462,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -404,42 +486,11 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -468,97 +519,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -570,6 +675,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -582,73 +699,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -735,6 +786,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -746,6 +821,35 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -765,35 +869,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -808,30 +883,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -840,10 +891,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -852,133 +903,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1337,8 +1388,8 @@
   <sheetPr/>
   <dimension ref="A1:E94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -1420,46 +1471,46 @@
         <v>14</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="2:5">
       <c r="B8" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="2:5">
       <c r="B9" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="2:5">
       <c r="B10" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -1490,7 +1541,7 @@
         <v>8</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="2:5">
@@ -1504,7 +1555,7 @@
         <v>12</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="2:5">
@@ -1512,41 +1563,41 @@
         <v>14</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="2:5">
       <c r="B15" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="2:5">
       <c r="B16" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="2:5">
@@ -1557,7 +1608,7 @@
     </row>
     <row r="18" spans="2:5">
       <c r="B18" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -1588,7 +1639,7 @@
         <v>8</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="2:5">
@@ -1602,7 +1653,7 @@
         <v>12</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="2:5">
@@ -1610,44 +1661,44 @@
         <v>14</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="2:5">
       <c r="B23" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="2:5">
       <c r="B24" s="8" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D24" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" ht="15.15" spans="2:5">
       <c r="B25" s="3" t="s">
         <v>30</v>
       </c>
@@ -1655,7 +1706,7 @@
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
     </row>
-    <row r="26" spans="2:5">
+    <row r="26" ht="15.15" spans="2:5">
       <c r="B26" s="8" t="s">
         <v>6</v>
       </c>
@@ -1915,7 +1966,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="45" spans="2:5">
+    <row r="45" ht="15.15" spans="2:5">
       <c r="B45" s="7" t="s">
         <v>74</v>
       </c>
@@ -1930,14 +1981,22 @@
       </c>
     </row>
     <row r="46" ht="15.15" spans="2:5">
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
-    </row>
-    <row r="47" ht="15.15" spans="2:5">
-      <c r="B47" s="8" t="s">
+      <c r="B46" s="8" t="s">
         <v>76</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5">
+      <c r="B47" s="7" t="s">
+        <v>78</v>
       </c>
       <c r="C47" s="7" t="s">
         <v>34</v>
@@ -1945,81 +2004,163 @@
       <c r="D47" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E47" s="8" t="s">
-        <v>77</v>
+      <c r="E47" s="7" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="48" spans="2:5">
-      <c r="B48" s="7"/>
+      <c r="B48" s="8"/>
       <c r="C48" s="7"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="7"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
     </row>
     <row r="49" spans="2:5">
-      <c r="B49" s="8"/>
-      <c r="C49" s="7"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="8"/>
-    </row>
-    <row r="50" spans="2:5">
-      <c r="B50" s="7"/>
-      <c r="C50" s="7"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="7"/>
-    </row>
-    <row r="51" spans="2:5">
-      <c r="B51" s="8"/>
-      <c r="C51" s="8"/>
-      <c r="D51" s="8"/>
-      <c r="E51" s="8"/>
+      <c r="B49" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+    </row>
+    <row r="50" ht="15.15" spans="2:5">
+      <c r="B50" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="51" ht="15.15" spans="2:5">
+      <c r="B51" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="52" ht="15.15" spans="2:5">
-      <c r="B52" s="3"/>
-      <c r="C52" s="3"/>
-      <c r="D52" s="3"/>
-      <c r="E52" s="3"/>
+      <c r="B52" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="53" ht="15.15" spans="2:5">
-      <c r="B53" s="8"/>
-      <c r="C53" s="7"/>
-      <c r="D53" s="6"/>
-      <c r="E53" s="8"/>
+      <c r="B53" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="54" spans="2:5">
-      <c r="B54" s="7"/>
-      <c r="C54" s="7"/>
-      <c r="D54" s="6"/>
-      <c r="E54" s="7"/>
+      <c r="B54" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="55" spans="2:5">
-      <c r="B55" s="8"/>
-      <c r="C55" s="7"/>
-      <c r="D55" s="8"/>
-      <c r="E55" s="8"/>
-    </row>
-    <row r="56" spans="2:5">
-      <c r="B56" s="7"/>
-      <c r="C56" s="7"/>
-      <c r="D56" s="7"/>
-      <c r="E56" s="7"/>
+      <c r="B55" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E55" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="56" ht="15.15" spans="2:5">
+      <c r="B56" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="57" ht="15.15" spans="2:5">
-      <c r="B57" s="3"/>
-      <c r="C57" s="3"/>
-      <c r="D57" s="3"/>
-      <c r="E57" s="3"/>
+      <c r="B57" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E57" s="8" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="58" spans="2:5">
-      <c r="B58" s="7"/>
-      <c r="C58" s="7"/>
-      <c r="D58" s="6"/>
-      <c r="E58" s="7"/>
-    </row>
-    <row r="59" ht="15.15" spans="2:5">
-      <c r="B59" s="8"/>
-      <c r="C59" s="8"/>
-      <c r="D59" s="8"/>
-      <c r="E59" s="8"/>
+      <c r="B58" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5">
+      <c r="B59" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E59" s="8" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="60" spans="2:5">
       <c r="B60" s="7"/>
@@ -2220,15 +2361,13 @@
       <c r="E94" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="10">
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B18:E18"/>
     <mergeCell ref="B25:E25"/>
     <mergeCell ref="B31:E31"/>
-    <mergeCell ref="B46:E46"/>
-    <mergeCell ref="B52:E52"/>
-    <mergeCell ref="B57:E57"/>
+    <mergeCell ref="B49:E49"/>
     <mergeCell ref="B66:E66"/>
     <mergeCell ref="B75:E75"/>
     <mergeCell ref="B85:E85"/>
